--- a/code/model_info.xlsx
+++ b/code/model_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AVG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TOTAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AVG" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOTAL" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,26 @@
           <t>MBconv3_stride</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MBconv4_inp</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>MBconv4_kernel_size</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>MBconv4_oup</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>MBconv4_stride</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -643,6 +663,10 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -731,6 +755,10 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -831,6 +859,10 @@
           <t>(1, 1)</t>
         </is>
       </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -931,6 +963,10 @@
           <t>(1, 1)</t>
         </is>
       </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1031,6 +1067,10 @@
           <t>(1, 1)</t>
         </is>
       </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1131,6 +1171,10 @@
           <t>(1, 1)</t>
         </is>
       </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1231,6 +1275,10 @@
           <t>(1, 1)</t>
         </is>
       </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1331,6 +1379,10 @@
           <t>(1, 1)</t>
         </is>
       </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1429,6 +1481,126 @@
       <c r="X10" t="inlineStr">
         <is>
           <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>92~96avg</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.850925</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(5, 1)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>16</v>
+      </c>
+      <c r="L11" t="n">
+        <v>32</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>(5, 1)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>32</v>
+      </c>
+      <c r="P11" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>968</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0523/kincnn4_1849_bs1024_weight0</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>64</v>
+      </c>
+      <c r="V11" t="n">
+        <v>128</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>(7, 5)</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
+        <v>256</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT93"/>
+  <dimension ref="A1:BT97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14181,6 +14353,646 @@
       <c r="BS93" t="inlineStr"/>
       <c r="BT93" t="inlineStr"/>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>train1</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.8466</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>8</v>
+      </c>
+      <c r="H94" t="n">
+        <v>16</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>(5, 1)</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>968</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>0523/kincnn1_1849_bs1024_weight0</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>16</v>
+      </c>
+      <c r="N94" t="n">
+        <v>32</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>(5, 1)</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>32</v>
+      </c>
+      <c r="R94" t="n">
+        <v>64</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="U94" t="n">
+        <v>64</v>
+      </c>
+      <c r="V94" t="n">
+        <v>128</v>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="Y94" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>256</v>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>(7, 5)</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
+      <c r="AO94" t="inlineStr"/>
+      <c r="AP94" t="inlineStr"/>
+      <c r="AQ94" t="inlineStr"/>
+      <c r="AR94" t="inlineStr"/>
+      <c r="AS94" t="inlineStr"/>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AU94" t="inlineStr"/>
+      <c r="AV94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr"/>
+      <c r="AX94" t="inlineStr"/>
+      <c r="AY94" t="inlineStr"/>
+      <c r="AZ94" t="inlineStr"/>
+      <c r="BA94" t="inlineStr"/>
+      <c r="BB94" t="inlineStr"/>
+      <c r="BC94" t="inlineStr"/>
+      <c r="BD94" t="inlineStr"/>
+      <c r="BE94" t="inlineStr"/>
+      <c r="BF94" t="inlineStr"/>
+      <c r="BG94" t="inlineStr"/>
+      <c r="BH94" t="inlineStr"/>
+      <c r="BI94" t="inlineStr"/>
+      <c r="BJ94" t="inlineStr"/>
+      <c r="BK94" t="inlineStr"/>
+      <c r="BL94" t="inlineStr"/>
+      <c r="BM94" t="inlineStr"/>
+      <c r="BN94" t="inlineStr"/>
+      <c r="BO94" t="inlineStr"/>
+      <c r="BP94" t="inlineStr"/>
+      <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
+      <c r="BS94" t="inlineStr"/>
+      <c r="BT94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>train2</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8536</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>8</v>
+      </c>
+      <c r="H95" t="n">
+        <v>16</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>(5, 1)</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>968</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>0523/kincnn2_1849_bs1024_weight0</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>16</v>
+      </c>
+      <c r="N95" t="n">
+        <v>32</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>(5, 1)</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>32</v>
+      </c>
+      <c r="R95" t="n">
+        <v>64</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="U95" t="n">
+        <v>64</v>
+      </c>
+      <c r="V95" t="n">
+        <v>128</v>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="Y95" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>256</v>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>(7, 5)</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
+      <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
+      <c r="AO95" t="inlineStr"/>
+      <c r="AP95" t="inlineStr"/>
+      <c r="AQ95" t="inlineStr"/>
+      <c r="AR95" t="inlineStr"/>
+      <c r="AS95" t="inlineStr"/>
+      <c r="AT95" t="inlineStr"/>
+      <c r="AU95" t="inlineStr"/>
+      <c r="AV95" t="inlineStr"/>
+      <c r="AW95" t="inlineStr"/>
+      <c r="AX95" t="inlineStr"/>
+      <c r="AY95" t="inlineStr"/>
+      <c r="AZ95" t="inlineStr"/>
+      <c r="BA95" t="inlineStr"/>
+      <c r="BB95" t="inlineStr"/>
+      <c r="BC95" t="inlineStr"/>
+      <c r="BD95" t="inlineStr"/>
+      <c r="BE95" t="inlineStr"/>
+      <c r="BF95" t="inlineStr"/>
+      <c r="BG95" t="inlineStr"/>
+      <c r="BH95" t="inlineStr"/>
+      <c r="BI95" t="inlineStr"/>
+      <c r="BJ95" t="inlineStr"/>
+      <c r="BK95" t="inlineStr"/>
+      <c r="BL95" t="inlineStr"/>
+      <c r="BM95" t="inlineStr"/>
+      <c r="BN95" t="inlineStr"/>
+      <c r="BO95" t="inlineStr"/>
+      <c r="BP95" t="inlineStr"/>
+      <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
+      <c r="BS95" t="inlineStr"/>
+      <c r="BT95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>train3</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.8536</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>8</v>
+      </c>
+      <c r="H96" t="n">
+        <v>16</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>(5, 1)</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>968</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>0523/kincnn3_1849_bs1024_weight0</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>16</v>
+      </c>
+      <c r="N96" t="n">
+        <v>32</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>(5, 1)</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>32</v>
+      </c>
+      <c r="R96" t="n">
+        <v>64</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="U96" t="n">
+        <v>64</v>
+      </c>
+      <c r="V96" t="n">
+        <v>128</v>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="Y96" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>256</v>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>(7, 5)</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
+      <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr"/>
+      <c r="AO96" t="inlineStr"/>
+      <c r="AP96" t="inlineStr"/>
+      <c r="AQ96" t="inlineStr"/>
+      <c r="AR96" t="inlineStr"/>
+      <c r="AS96" t="inlineStr"/>
+      <c r="AT96" t="inlineStr"/>
+      <c r="AU96" t="inlineStr"/>
+      <c r="AV96" t="inlineStr"/>
+      <c r="AW96" t="inlineStr"/>
+      <c r="AX96" t="inlineStr"/>
+      <c r="AY96" t="inlineStr"/>
+      <c r="AZ96" t="inlineStr"/>
+      <c r="BA96" t="inlineStr"/>
+      <c r="BB96" t="inlineStr"/>
+      <c r="BC96" t="inlineStr"/>
+      <c r="BD96" t="inlineStr"/>
+      <c r="BE96" t="inlineStr"/>
+      <c r="BF96" t="inlineStr"/>
+      <c r="BG96" t="inlineStr"/>
+      <c r="BH96" t="inlineStr"/>
+      <c r="BI96" t="inlineStr"/>
+      <c r="BJ96" t="inlineStr"/>
+      <c r="BK96" t="inlineStr"/>
+      <c r="BL96" t="inlineStr"/>
+      <c r="BM96" t="inlineStr"/>
+      <c r="BN96" t="inlineStr"/>
+      <c r="BO96" t="inlineStr"/>
+      <c r="BP96" t="inlineStr"/>
+      <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
+      <c r="BS96" t="inlineStr"/>
+      <c r="BT96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>train4</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8499</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>8</v>
+      </c>
+      <c r="H97" t="n">
+        <v>16</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>(5, 1)</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>968</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>0523/kincnn4_1849_bs1024_weight0</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>16</v>
+      </c>
+      <c r="N97" t="n">
+        <v>32</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>(5, 1)</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>32</v>
+      </c>
+      <c r="R97" t="n">
+        <v>64</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="U97" t="n">
+        <v>64</v>
+      </c>
+      <c r="V97" t="n">
+        <v>128</v>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>(2, 1)</t>
+        </is>
+      </c>
+      <c r="Y97" t="n">
+        <v>128</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>256</v>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>(7, 5)</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>(1, 1)</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
+      <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
+      <c r="AO97" t="inlineStr"/>
+      <c r="AP97" t="inlineStr"/>
+      <c r="AQ97" t="inlineStr"/>
+      <c r="AR97" t="inlineStr"/>
+      <c r="AS97" t="inlineStr"/>
+      <c r="AT97" t="inlineStr"/>
+      <c r="AU97" t="inlineStr"/>
+      <c r="AV97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr"/>
+      <c r="AX97" t="inlineStr"/>
+      <c r="AY97" t="inlineStr"/>
+      <c r="AZ97" t="inlineStr"/>
+      <c r="BA97" t="inlineStr"/>
+      <c r="BB97" t="inlineStr"/>
+      <c r="BC97" t="inlineStr"/>
+      <c r="BD97" t="inlineStr"/>
+      <c r="BE97" t="inlineStr"/>
+      <c r="BF97" t="inlineStr"/>
+      <c r="BG97" t="inlineStr"/>
+      <c r="BH97" t="inlineStr"/>
+      <c r="BI97" t="inlineStr"/>
+      <c r="BJ97" t="inlineStr"/>
+      <c r="BK97" t="inlineStr"/>
+      <c r="BL97" t="inlineStr"/>
+      <c r="BM97" t="inlineStr"/>
+      <c r="BN97" t="inlineStr"/>
+      <c r="BO97" t="inlineStr"/>
+      <c r="BP97" t="inlineStr"/>
+      <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
+      <c r="BS97" t="inlineStr"/>
+      <c r="BT97" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
